--- a/biology/Zoologie/Actias_laovieta/Actias_laovieta.xlsx
+++ b/biology/Zoologie/Actias_laovieta/Actias_laovieta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actias laovieta est une espèce de papillons du Sud-Est asiatique de la famille des Saturniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actias laovieta est présent au Laos et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actias laovieta est présent au Laos et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure environ 14 cm, la femelle environ 15 cm. L'holotype, un mâle, a une envergure de 141 mm.
 Cette espèce est très proche d’Actias Selene. 
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Actias laovieta Naumann (d), Nässig (d) &amp; Löffler (d), 2017[2],[1].
-La localité type est la ville de Nam Ban située à une altitude de 970 m dans la province de Lâm Đồng, au Viêt Nam[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Actias laovieta Naumann (d), Nässig (d) &amp; Löffler (d), 2017,.
+La localité type est la ville de Nam Ban située à une altitude de 970 m dans la province de Lâm Đồng, au Viêt Nam.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, laovieta, est la combinaison des deux régions où cette espèce a été trouvée jusqu'à présent, le Sud du Laos et les provinces adjacentes du Sud Viêt Nam[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, laovieta, est la combinaison des deux régions où cette espèce a été trouvée jusqu'à présent, le Sud du Laos et les provinces adjacentes du Sud Viêt Nam.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Stefan Naumann, Wolfgang A. Nässig et Swen Löffler, « Some new Asian Saturniidae (Lepidoptera) », Nachrichten des Entomologischen Vereins Apollo, vol. 38, no 4,‎ 2017, p. 169-180 (ISSN 0723-9912, lire en ligne)</t>
         </is>
